--- a/v5/HP_assay/HP_083023_DS/sample_layout.xlsx
+++ b/v5/HP_assay/HP_083023_DS/sample_layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/Hydroxyproline/v5/HP_assay/HP_083023_DS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/template-processing/v5/HP_assay/HP_083023_DS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18944E26-0EA7-7743-A464-6F06614025E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB070D84-F3BB-5644-9AE9-A8742CB3FDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-2680" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>sample_ID</t>
-  </si>
-  <si>
-    <t>hide_ID</t>
   </si>
   <si>
     <t>operator</t>
@@ -243,9 +240,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>biomaterial_ID</t>
-  </si>
-  <si>
     <t>digestion_volume_ul</t>
   </si>
   <si>
@@ -262,6 +256,12 @@
   </si>
   <si>
     <t>hide</t>
+  </si>
+  <si>
+    <t>biopsy_id</t>
+  </si>
+  <si>
+    <t>biomaterial_id</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,10 +716,10 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>15</v>
@@ -728,64 +728,64 @@
         <v>14</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="X1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -793,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
@@ -817,7 +817,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" s="7">
         <v>1.05</v>
@@ -841,16 +841,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -865,7 +865,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" s="7">
         <v>0.52500000000000002</v>
@@ -889,16 +889,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
@@ -913,7 +913,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S4" s="7">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -961,7 +961,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S5" s="12">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1009,7 +1009,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="12">
         <v>0.2</v>
@@ -1033,16 +1033,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1057,7 +1057,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S7" s="12">
         <v>0.4</v>
@@ -1081,16 +1081,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1105,7 +1105,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S8" s="12">
         <v>0.6</v>
@@ -1129,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1153,7 +1153,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S9" s="12">
         <v>0.8</v>
@@ -1177,16 +1177,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1201,7 +1201,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S10" s="12">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1249,7 +1249,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1271,22 +1271,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7">
         <v>727</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="9">
         <v>45134</v>
@@ -1319,14 +1319,14 @@
         <v>1667.59</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" s="9">
         <v>45168</v>
@@ -1347,22 +1347,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7">
         <v>727</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="9">
         <v>45134</v>
@@ -1395,14 +1395,14 @@
         <v>1646.5</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V13" s="9">
         <v>45168</v>
@@ -1423,22 +1423,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7">
         <v>727</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="9">
         <v>45134</v>
@@ -1471,14 +1471,14 @@
         <v>1661.77</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" s="9">
         <v>45168</v>
@@ -1499,22 +1499,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7">
         <v>727</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="9">
         <v>45134</v>
@@ -1547,14 +1547,14 @@
         <v>1678.05</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V15" s="9">
         <v>45168</v>
@@ -1575,22 +1575,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7">
         <v>727</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="9">
         <v>45134</v>
@@ -1623,14 +1623,14 @@
         <v>1643.23</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V16" s="9">
         <v>45168</v>
@@ -1651,22 +1651,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7">
         <v>727</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="9">
         <v>45134</v>
@@ -1699,14 +1699,14 @@
         <v>1667.25</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" s="9">
         <v>45168</v>
@@ -1727,22 +1727,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7">
         <v>727</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9">
         <v>45134</v>
@@ -1775,14 +1775,14 @@
         <v>1657.58</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V18" s="9">
         <v>45168</v>
@@ -1803,22 +1803,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7">
         <v>727</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="9">
         <v>45134</v>
@@ -1851,14 +1851,14 @@
         <v>1641.12</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V19" s="9">
         <v>45168</v>
@@ -1879,22 +1879,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7">
         <v>727</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="9">
         <v>45134</v>
@@ -1927,14 +1927,14 @@
         <v>1656.87</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" s="9">
         <v>45168</v>
@@ -2052,21 +2052,21 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
@@ -2081,7 +2081,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S24" s="7">
         <v>1.05</v>
@@ -2100,21 +2100,21 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
@@ -2129,7 +2129,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S25" s="7">
         <v>0.52500000000000002</v>
@@ -2148,21 +2148,21 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
@@ -2177,7 +2177,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S26" s="7">
         <v>0</v>
@@ -2196,21 +2196,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2225,7 +2225,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S27" s="12">
         <v>0</v>
@@ -2244,21 +2244,21 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2273,7 +2273,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S28" s="12">
         <v>0.2</v>
@@ -2292,21 +2292,21 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2321,7 +2321,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S29" s="12">
         <v>0.4</v>
@@ -2340,21 +2340,21 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2369,7 +2369,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S30" s="12">
         <v>0.6</v>
@@ -2388,21 +2388,21 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2417,7 +2417,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S31" s="12">
         <v>0.8</v>
@@ -2436,21 +2436,21 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2465,7 +2465,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S32" s="12">
         <v>1</v>
@@ -2489,16 +2489,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2513,7 +2513,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2530,27 +2530,27 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="7">
         <v>727</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="9">
         <v>45134</v>
@@ -2583,14 +2583,14 @@
         <v>1667.59</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" s="9">
         <v>45168</v>
@@ -2606,27 +2606,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" s="7">
         <v>727</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="9">
         <v>45134</v>
@@ -2659,14 +2659,14 @@
         <v>1646.5</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" s="9">
         <v>45168</v>
@@ -2682,27 +2682,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="7">
         <v>727</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" s="9">
         <v>45134</v>
@@ -2735,14 +2735,14 @@
         <v>1661.77</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" s="9">
         <v>45168</v>
@@ -2758,27 +2758,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="7">
         <v>727</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="9">
         <v>45134</v>
@@ -2811,14 +2811,14 @@
         <v>1678.05</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V37" s="9">
         <v>45168</v>
@@ -2834,27 +2834,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7">
         <v>727</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="9">
         <v>45134</v>
@@ -2887,14 +2887,14 @@
         <v>1643.23</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="9">
         <v>45168</v>
@@ -2910,27 +2910,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7">
         <v>727</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="9">
         <v>45134</v>
@@ -2963,14 +2963,14 @@
         <v>1667.25</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" s="9">
         <v>45168</v>
@@ -2986,27 +2986,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="7">
         <v>727</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="9">
         <v>45134</v>
@@ -3039,14 +3039,14 @@
         <v>1657.58</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V40" s="9">
         <v>45168</v>
@@ -3062,27 +3062,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="7">
         <v>727</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="9">
         <v>45134</v>
@@ -3115,14 +3115,14 @@
         <v>1641.12</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V41" s="9">
         <v>45168</v>
@@ -3138,27 +3138,27 @@
 07-27-2023</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" s="7">
         <v>727</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="9">
         <v>45134</v>
@@ -3191,14 +3191,14 @@
         <v>1656.87</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V42" s="9">
         <v>45168</v>
